--- a/IPL/Rajasthan Royals/Kartik Tyagi .xlsx
+++ b/IPL/Rajasthan Royals/Kartik Tyagi .xlsx
@@ -408,10 +408,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>

--- a/IPL/Rajasthan Royals/Kartik Tyagi .xlsx
+++ b/IPL/Rajasthan Royals/Kartik Tyagi .xlsx
@@ -408,10 +408,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
